--- a/src/test/java/test/data/CustomerData.xlsx
+++ b/src/test/java/test/data/CustomerData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Customer Added</t>
+  </si>
+  <si>
+    <t>82251</t>
+  </si>
+  <si>
+    <t>Customer added</t>
+  </si>
+  <si>
+    <t>Account ID</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +408,7 @@
     <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +427,11 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>68273</v>
       </c>
@@ -439,7 +451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8533</v>
       </c>
@@ -447,15 +459,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>29787</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>92978</v>
       </c>
@@ -463,12 +475,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
